--- a/Assets/Spreadsheets/Achievements.xlsx
+++ b/Assets/Spreadsheets/Achievements.xlsx
@@ -127,19 +127,19 @@
     <t>유물 20개 보유</t>
   </si>
   <si>
-    <t>레벨 총합 100 도달</t>
+    <t>능력치 레벨 총합 100 도달</t>
   </si>
   <si>
     <t>TotalLevel</t>
   </si>
   <si>
-    <t>레벨 총합 1K 도달</t>
-  </si>
-  <si>
-    <t>레벨 총합 10K 도달</t>
-  </si>
-  <si>
-    <t>레벨 총합 100K 도달</t>
+    <t>능력치 레벨 총합 1K 도달</t>
+  </si>
+  <si>
+    <t>능력치 레벨 총합 10K 도달</t>
+  </si>
+  <si>
+    <t>능력치 레벨 총합 100K 도달</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
     <col customWidth="1" min="3" max="4" width="17.63"/>
     <col customWidth="1" min="5" max="5" width="15.13"/>
   </cols>
